--- a/target/classes/Resources/TestData.xlsx
+++ b/target/classes/Resources/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TestCases</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>buty</t>
+  </si>
+  <si>
+    <t>Favourites</t>
   </si>
 </sst>
 </file>
@@ -399,12 +402,13 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -457,6 +461,9 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
